--- a/sem02/f229/exp05/data/calorímetro_fechado.xlsx
+++ b/sem02/f229/exp05/data/calorímetro_fechado.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
-    <t xml:space="preserve">Tempo [s]</t>
+    <t xml:space="preserve">Tempo (s)</t>
   </si>
   <si>
     <t xml:space="preserve">Voltagem [mV]</t>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Column3</t>
   </si>
   <si>
-    <t xml:space="preserve">Temperatura [K]</t>
+    <t xml:space="preserve">Temperatura (K)</t>
   </si>
   <si>
     <t xml:space="preserve">Column2</t>
@@ -398,11 +398,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="4" shrinkToFit="true"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="6" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="3" shrinkToFit="true"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="4" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -517,11 +517,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G80" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:G80"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Tempo [s]"/>
+    <tableColumn id="1" name="Tempo (s)"/>
     <tableColumn id="2" name="Voltagem [mV]"/>
     <tableColumn id="3" name="Temperatura"/>
     <tableColumn id="4" name="Column3"/>
-    <tableColumn id="5" name="Temperatura [K]"/>
+    <tableColumn id="5" name="Temperatura (K)"/>
     <tableColumn id="6" name="Column2"/>
     <tableColumn id="7" name="Column1"/>
   </tableColumns>
@@ -556,7 +556,7 @@
   <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E80"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2591,7 +2591,7 @@
   <dimension ref="A1:L144"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L30" activeCellId="1" sqref="E2:E80 L30"/>
+      <selection pane="topLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
